--- a/acervo separado/Acervo_Equipamento_de_comunicaçao_escrita.xlsx
+++ b/acervo separado/Acervo_Equipamento_de_comunicaçao_escrita.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EF2A10-3112-4D04-864E-48698C7980F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C80BFE-E8C3-474F-8A21-14FCCEE1EB50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$24</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$24</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,18 +111,9 @@
     <t>s/a</t>
   </si>
   <si>
-    <t>Bronze</t>
-  </si>
-  <si>
     <t>S6 EST</t>
   </si>
   <si>
-    <t>Talha/marfim</t>
-  </si>
-  <si>
-    <t>Mármore</t>
-  </si>
-  <si>
     <t>"?"</t>
   </si>
   <si>
@@ -128,9 +126,6 @@
     <t>Peso de papel (coelho)</t>
   </si>
   <si>
-    <t>Chumbo e mármore</t>
-  </si>
-  <si>
     <t>9,7 x 8,3 cm</t>
   </si>
   <si>
@@ -158,18 +153,12 @@
     <t>5,8 x 4,8 cm</t>
   </si>
   <si>
-    <t>Prata</t>
-  </si>
-  <si>
     <t>1481 A</t>
   </si>
   <si>
     <t>Pedra de sinete  (cabeça masculina de perfil com chapéu)</t>
   </si>
   <si>
-    <t>Glíptica/pedra</t>
-  </si>
-  <si>
     <t>2,2 x 1,8 cm</t>
   </si>
   <si>
@@ -188,9 +177,6 @@
     <t>Pedra de sinete  (cabeça masculina de perfil)</t>
   </si>
   <si>
-    <t>Glíptica/pedra e madeira</t>
-  </si>
-  <si>
     <t>6,4 x 2,9 cm</t>
   </si>
   <si>
@@ -206,9 +192,6 @@
     <t>1478</t>
   </si>
   <si>
-    <t>Glíptica/ouro e pedra</t>
-  </si>
-  <si>
     <t>4,5 x 3,6 cm</t>
   </si>
   <si>
@@ -218,9 +201,6 @@
     <t>Sinete (guerreiro romano e símbolos do zodíaco)</t>
   </si>
   <si>
-    <t>Glíptica/prata e pedra</t>
-  </si>
-  <si>
     <t>8,7 x 2,8 cm</t>
   </si>
   <si>
@@ -233,18 +213,12 @@
     <t>2,5 x 2,3 cm</t>
   </si>
   <si>
-    <t>Vidro</t>
-  </si>
-  <si>
     <t>1365</t>
   </si>
   <si>
     <t>Peso de papel (Basílica de Saint Genevieve-Montmartre)</t>
   </si>
   <si>
-    <t>Gravura/papel e vidro</t>
-  </si>
-  <si>
     <t>3,1 cm</t>
   </si>
   <si>
@@ -290,18 +264,12 @@
     <t>Peso de papel (Vaticano)</t>
   </si>
   <si>
-    <t>Mosaico/mármore amarelo</t>
-  </si>
-  <si>
     <t>9,0 x 13,5 cm</t>
   </si>
   <si>
     <t>1368</t>
   </si>
   <si>
-    <t>Mosaico/mármore preto</t>
-  </si>
-  <si>
     <t>11,5 x 15,5 cm</t>
   </si>
   <si>
@@ -311,9 +279,6 @@
     <t>Porta-penas (elefante)</t>
   </si>
   <si>
-    <t>Porcelana branca</t>
-  </si>
-  <si>
     <t>6,0 x 9,2 cm</t>
   </si>
   <si>
@@ -347,9 +312,6 @@
     <t>1400</t>
   </si>
   <si>
-    <t>Bico de pena e talha/marfim</t>
-  </si>
-  <si>
     <t>10,1 x 6,0 cm</t>
   </si>
   <si>
@@ -365,9 +327,6 @@
     <t>Tinteiro escrivaninha ("le penseur")</t>
   </si>
   <si>
-    <t>Bronze dourado/mármore</t>
-  </si>
-  <si>
     <t>36,5 x 54,0 x 26,0 cm</t>
   </si>
   <si>
@@ -492,6 +451,54 @@
   </si>
   <si>
     <t>54,0cm</t>
+  </si>
+  <si>
+    <t>mattec_71</t>
+  </si>
+  <si>
+    <t>mattec_184</t>
+  </si>
+  <si>
+    <t>mattec_116</t>
+  </si>
+  <si>
+    <t>mattec_117</t>
+  </si>
+  <si>
+    <t>mattec_38</t>
+  </si>
+  <si>
+    <t>mattec_115</t>
+  </si>
+  <si>
+    <t>mattec_118</t>
+  </si>
+  <si>
+    <t>mattec_133</t>
+  </si>
+  <si>
+    <t>mattec_303</t>
+  </si>
+  <si>
+    <t>mattec_201</t>
+  </si>
+  <si>
+    <t>mattec_202</t>
+  </si>
+  <si>
+    <t>mattec_253</t>
+  </si>
+  <si>
+    <t>mattec_255</t>
+  </si>
+  <si>
+    <t>mattec_287</t>
+  </si>
+  <si>
+    <t>mattec_24</t>
+  </si>
+  <si>
+    <t>mattec_41</t>
   </si>
 </sst>
 </file>
@@ -895,7 +902,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,19 +980,19 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="T1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="U1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="V1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -993,25 +1000,25 @@
         <v>1271</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -1020,7 +1027,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -1032,18 +1039,18 @@
         <v>25</v>
       </c>
       <c r="R2" s="2" t="str">
-        <f>IFERROR(LEFT(I2,SEARCH("x",I2)-1),"")&amp;"cm"</f>
+        <f t="shared" ref="R2:R10" si="0">IFERROR(LEFT(I2,SEARCH("x",I2)-1),"")&amp;"cm"</f>
         <v>9,7 cm</v>
       </c>
       <c r="S2" s="2" t="str">
-        <f>MID(I2,LEN(R2)+1,4)&amp;"cm"</f>
+        <f t="shared" ref="S2:S10" si="1">MID(I2,LEN(R2)+1,4)&amp;"cm"</f>
         <v>8,3 cm</v>
       </c>
       <c r="U2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="V2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1051,22 +1058,22 @@
         <v>1380</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -1075,7 +1082,7 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1087,18 +1094,18 @@
         <v>25</v>
       </c>
       <c r="R3" s="2" t="str">
-        <f>IFERROR(LEFT(I3,SEARCH("x",I3)-1),"")&amp;"cm"</f>
+        <f t="shared" si="0"/>
         <v>5,8 cm</v>
       </c>
       <c r="S3" s="2" t="str">
-        <f>MID(I3,LEN(R3)+1,4)&amp;"cm"</f>
+        <f t="shared" si="1"/>
         <v>4,8 cm</v>
       </c>
       <c r="U3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="V3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1106,22 +1113,22 @@
         <v>1481</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -1130,7 +1137,7 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
@@ -1142,18 +1149,18 @@
         <v>25</v>
       </c>
       <c r="R4" s="2" t="str">
-        <f>IFERROR(LEFT(I4,SEARCH("x",I4)-1),"")&amp;"cm"</f>
+        <f t="shared" si="0"/>
         <v>2,2 cm</v>
       </c>
       <c r="S4" s="2" t="str">
-        <f>MID(I4,LEN(R4)+1,4)&amp;"cm"</f>
+        <f t="shared" si="1"/>
         <v>1,8 cm</v>
       </c>
       <c r="U4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="V4" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1161,22 +1168,22 @@
         <v>1481</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -1185,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
@@ -1197,18 +1204,18 @@
         <v>25</v>
       </c>
       <c r="R5" s="2" t="str">
-        <f>IFERROR(LEFT(I5,SEARCH("x",I5)-1),"")&amp;"cm"</f>
+        <f t="shared" si="0"/>
         <v>2,3 cm</v>
       </c>
       <c r="S5" s="2" t="str">
-        <f>MID(I5,LEN(R5)+1,4)&amp;"cm"</f>
+        <f t="shared" si="1"/>
         <v>1,9 cm</v>
       </c>
       <c r="U5" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="V5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1216,22 +1223,22 @@
         <v>1482</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -1240,7 +1247,7 @@
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -1252,18 +1259,18 @@
         <v>25</v>
       </c>
       <c r="R6" s="2" t="str">
-        <f>IFERROR(LEFT(I6,SEARCH("x",I6)-1),"")&amp;"cm"</f>
+        <f t="shared" si="0"/>
         <v>6,4 cm</v>
       </c>
       <c r="S6" s="2" t="str">
-        <f>MID(I6,LEN(R6)+1,4)&amp;"cm"</f>
+        <f t="shared" si="1"/>
         <v>2,9 cm</v>
       </c>
       <c r="U6" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="V6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1271,22 +1278,22 @@
         <v>1479</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -1295,7 +1302,7 @@
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -1307,18 +1314,18 @@
         <v>25</v>
       </c>
       <c r="R7" s="2" t="str">
-        <f>IFERROR(LEFT(I7,SEARCH("x",I7)-1),"")&amp;"cm"</f>
+        <f t="shared" si="0"/>
         <v>3,2 cm</v>
       </c>
       <c r="S7" s="2" t="str">
-        <f>MID(I7,LEN(R7)+1,4)&amp;"cm"</f>
+        <f t="shared" si="1"/>
         <v>2,3 cm</v>
       </c>
       <c r="U7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="V7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1326,22 +1333,22 @@
         <v>1478</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -1350,7 +1357,7 @@
         <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -1362,18 +1369,18 @@
         <v>22</v>
       </c>
       <c r="R8" s="2" t="str">
-        <f>IFERROR(LEFT(I8,SEARCH("x",I8)-1),"")&amp;"cm"</f>
+        <f t="shared" si="0"/>
         <v>4,5 cm</v>
       </c>
       <c r="S8" s="2" t="str">
-        <f>MID(I8,LEN(R8)+1,4)&amp;"cm"</f>
+        <f t="shared" si="1"/>
         <v>3,6 cm</v>
       </c>
       <c r="U8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="V8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1381,22 +1388,22 @@
         <v>1480</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -1405,7 +1412,7 @@
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
         <v>24</v>
@@ -1417,18 +1424,18 @@
         <v>25</v>
       </c>
       <c r="R9" s="2" t="str">
-        <f>IFERROR(LEFT(I9,SEARCH("x",I9)-1),"")&amp;"cm"</f>
+        <f t="shared" si="0"/>
         <v>8,7 cm</v>
       </c>
       <c r="S9" s="2" t="str">
-        <f>MID(I9,LEN(R9)+1,4)&amp;"cm"</f>
+        <f t="shared" si="1"/>
         <v>2,8 cm</v>
       </c>
       <c r="U9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="V9" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1436,22 +1443,22 @@
         <v>1477</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -1460,7 +1467,7 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
@@ -1472,18 +1479,18 @@
         <v>25</v>
       </c>
       <c r="R10" s="2" t="str">
-        <f>IFERROR(LEFT(I10,SEARCH("x",I10)-1),"")&amp;"cm"</f>
+        <f t="shared" si="0"/>
         <v>2,5 cm</v>
       </c>
       <c r="S10" s="2" t="str">
-        <f>MID(I10,LEN(R10)+1,4)&amp;"cm"</f>
+        <f t="shared" si="1"/>
         <v>2,3 cm</v>
       </c>
       <c r="U10" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="V10" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1491,25 +1498,25 @@
         <v>1365</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -1518,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
         <v>24</v>
@@ -1530,11 +1537,11 @@
         <v>25</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="S11" s="2"/>
       <c r="U11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1542,25 +1549,25 @@
         <v>1366</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -1569,7 +1576,7 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
         <v>24</v>
@@ -1581,11 +1588,11 @@
         <v>25</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="S12" s="2"/>
       <c r="U12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1593,22 +1600,22 @@
         <v>1440</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
@@ -1617,7 +1624,7 @@
         <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
         <v>24</v>
@@ -1629,18 +1636,18 @@
         <v>25</v>
       </c>
       <c r="R13" s="2" t="str">
-        <f>IFERROR(LEFT(I13,SEARCH("x",I13)-1),"")&amp;"cm"</f>
+        <f t="shared" ref="R13:R24" si="2">IFERROR(LEFT(I13,SEARCH("x",I13)-1),"")&amp;"cm"</f>
         <v>6,8 cm</v>
       </c>
       <c r="S13" s="2" t="str">
-        <f>MID(I13,LEN(R13)+1,4)&amp;"cm"</f>
+        <f t="shared" ref="S13:S24" si="3">MID(I13,LEN(R13)+1,4)&amp;"cm"</f>
         <v>4,8 cm</v>
       </c>
       <c r="U13" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="V13" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1648,25 +1655,25 @@
         <v>1429</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
@@ -1675,7 +1682,7 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
@@ -1687,18 +1694,18 @@
         <v>25</v>
       </c>
       <c r="R14" s="2" t="str">
-        <f>IFERROR(LEFT(I14,SEARCH("x",I14)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>30,0 cm</v>
       </c>
       <c r="S14" s="2" t="str">
-        <f>MID(I14,LEN(R14)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>21,6cm</v>
       </c>
       <c r="U14" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="V14" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1706,25 +1713,25 @@
         <v>1429</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1733,7 +1740,7 @@
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
@@ -1745,18 +1752,18 @@
         <v>22</v>
       </c>
       <c r="R15" s="2" t="str">
-        <f>IFERROR(LEFT(I15,SEARCH("x",I15)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>7,3 cm</v>
       </c>
       <c r="S15" s="2" t="str">
-        <f>MID(I15,LEN(R15)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>6,2 cm</v>
       </c>
       <c r="U15" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="V15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1764,22 +1771,22 @@
         <v>1367</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -1788,7 +1795,7 @@
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
         <v>24</v>
@@ -1800,18 +1807,18 @@
         <v>25</v>
       </c>
       <c r="R16" s="2" t="str">
-        <f>IFERROR(LEFT(I16,SEARCH("x",I16)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>9,0 cm</v>
       </c>
       <c r="S16" s="2" t="str">
-        <f>MID(I16,LEN(R16)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>13,5cm</v>
       </c>
       <c r="U16" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="V16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -1819,25 +1826,25 @@
         <v>1368</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -1846,7 +1853,7 @@
         <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M17" t="s">
         <v>24</v>
@@ -1858,18 +1865,18 @@
         <v>25</v>
       </c>
       <c r="R17" s="2" t="str">
-        <f>IFERROR(LEFT(I17,SEARCH("x",I17)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>11,5 cm</v>
       </c>
       <c r="S17" s="2" t="str">
-        <f>MID(I17,LEN(R17)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>15,5cm</v>
       </c>
       <c r="U17" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="V17" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1877,25 +1884,25 @@
         <v>1361</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
@@ -1904,7 +1911,7 @@
         <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
@@ -1916,18 +1923,18 @@
         <v>25</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f>IFERROR(LEFT(I18,SEARCH("x",I18)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>6,0 cm</v>
       </c>
       <c r="S18" s="2" t="str">
-        <f>MID(I18,LEN(R18)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>9,2 cm</v>
       </c>
       <c r="U18" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="V18" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -1935,25 +1942,25 @@
         <v>1433</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
@@ -1962,7 +1969,7 @@
         <v>19</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
         <v>24</v>
@@ -1974,21 +1981,21 @@
         <v>25</v>
       </c>
       <c r="R19" s="2" t="str">
-        <f>IFERROR(LEFT(I19,SEARCH("x",I19)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>8,7 cm</v>
       </c>
       <c r="S19" s="2" t="str">
-        <f>MID(I19,LEN(R19)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>6,1 cm</v>
       </c>
       <c r="T19" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="U19" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="V19" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1996,22 +2003,22 @@
         <v>1399</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
         <v>18</v>
@@ -2020,7 +2027,7 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
         <v>24</v>
@@ -2032,18 +2039,18 @@
         <v>25</v>
       </c>
       <c r="R20" s="2" t="str">
-        <f>IFERROR(LEFT(I20,SEARCH("x",I20)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>10,0 cm</v>
       </c>
       <c r="S20" s="2" t="str">
-        <f>MID(I20,LEN(R20)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>5,8 cm</v>
       </c>
       <c r="U20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="V20" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -2051,22 +2058,22 @@
         <v>1399</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
@@ -2075,7 +2082,7 @@
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" t="s">
         <v>24</v>
@@ -2087,18 +2094,18 @@
         <v>25</v>
       </c>
       <c r="R21" s="2" t="str">
-        <f>IFERROR(LEFT(I21,SEARCH("x",I21)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>10,0 cm</v>
       </c>
       <c r="S21" s="2" t="str">
-        <f>MID(I21,LEN(R21)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>5,8 cm</v>
       </c>
       <c r="U21" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="V21" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -2106,22 +2113,22 @@
         <v>1400</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
@@ -2130,7 +2137,7 @@
         <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22" t="s">
         <v>24</v>
@@ -2142,18 +2149,18 @@
         <v>25</v>
       </c>
       <c r="R22" s="2" t="str">
-        <f>IFERROR(LEFT(I22,SEARCH("x",I22)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>10,1 cm</v>
       </c>
       <c r="S22" s="2" t="str">
-        <f>MID(I22,LEN(R22)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>6,0 cm</v>
       </c>
       <c r="U22" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="V22" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2161,25 +2168,25 @@
         <v>1429</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s">
         <v>18</v>
@@ -2188,7 +2195,7 @@
         <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
         <v>20</v>
@@ -2200,18 +2207,18 @@
         <v>25</v>
       </c>
       <c r="R23" s="2" t="str">
-        <f>IFERROR(LEFT(I23,SEARCH("x",I23)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>7,3 cm</v>
       </c>
       <c r="S23" s="2" t="str">
-        <f>MID(I23,LEN(R23)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>6,2 cm</v>
       </c>
       <c r="U23" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="V23" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2219,25 +2226,25 @@
         <v>3697</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
@@ -2246,33 +2253,33 @@
         <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s">
         <v>20</v>
       </c>
       <c r="O24" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R24" s="2" t="str">
-        <f>IFERROR(LEFT(I24,SEARCH("x",I24)-1),"")&amp;"cm"</f>
+        <f t="shared" si="2"/>
         <v>36,5 cm</v>
       </c>
       <c r="S24" s="2" t="str">
-        <f>MID(I24,LEN(R24)+1,4)&amp;"cm"</f>
+        <f t="shared" si="3"/>
         <v>54,0cm</v>
       </c>
       <c r="T24" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="U24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="V24" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
